--- a/data/output/FV2310_FV2304/INVOIC/31004.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="331">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="331">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1158,6 +1158,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U197" totalsRowShown="0">
+  <autoFilter ref="A1:U197"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,7 +1477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10223,5 +10256,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31004.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31004.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="512">
   <si>
     <t>#</t>
   </si>
@@ -4912,46 +4912,44 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="V60" s="5" t="s">
+      <c r="V60" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4977,9 +4975,7 @@
         <v>272</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>32</v>
       </c>
@@ -5025,9 +5021,7 @@
         <v>259</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>32</v>
       </c>
@@ -5052,44 +5046,42 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="K63" s="2"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V63" s="5"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5113,9 +5105,7 @@
         <v>258</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>33</v>
       </c>
@@ -5163,9 +5153,7 @@
         <v>259</v>
       </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>33</v>
       </c>
@@ -5219,9 +5207,7 @@
         <v>259</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>33</v>
       </c>
@@ -5248,44 +5234,42 @@
       <c r="V66" s="5"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="5"/>
-      <c r="L67" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -5309,9 +5293,7 @@
         <v>258</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>34</v>
       </c>
@@ -5361,9 +5343,7 @@
       <c r="K69" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>34</v>
       </c>
@@ -5417,9 +5397,7 @@
         <v>259</v>
       </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="5" t="s">
         <v>34</v>
       </c>
@@ -5444,48 +5422,46 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M71" s="5" t="s">
+      <c r="K71" s="2"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -5515,9 +5491,7 @@
         <v>259</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>
@@ -5571,9 +5545,7 @@
       <c r="K73" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="L73" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>35</v>
       </c>
@@ -5627,9 +5599,7 @@
         <v>259</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>35</v>
       </c>
@@ -5656,44 +5626,42 @@
       <c r="V74" s="5"/>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -5717,9 +5685,7 @@
         <v>258</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>36</v>
       </c>
@@ -5765,9 +5731,7 @@
         <v>274</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>36</v>
       </c>
@@ -5817,9 +5781,7 @@
         <v>259</v>
       </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>36</v>
       </c>
@@ -5871,9 +5833,7 @@
         <v>259</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>36</v>
       </c>
@@ -5927,9 +5887,7 @@
         <v>259</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>36</v>
       </c>
@@ -5983,9 +5941,7 @@
         <v>259</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>36</v>
       </c>
@@ -6037,9 +5993,7 @@
         <v>259</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>36</v>
       </c>
@@ -6091,9 +6045,7 @@
         <v>259</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>36</v>
       </c>
@@ -6147,9 +6099,7 @@
         <v>259</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>36</v>
       </c>
@@ -6203,9 +6153,7 @@
       <c r="K85" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L85" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L85" s="4"/>
       <c r="M85" s="5" t="s">
         <v>36</v>
       </c>
@@ -6257,9 +6205,7 @@
         <v>276</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>36</v>
       </c>
@@ -6309,9 +6255,7 @@
         <v>259</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>36</v>
       </c>
@@ -6361,9 +6305,7 @@
         <v>259</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>36</v>
       </c>
@@ -6388,44 +6330,42 @@
       <c r="V88" s="5"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M89" s="5" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5" t="s">
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V89" s="5"/>
+      <c r="V89" s="2"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -6449,9 +6389,7 @@
         <v>258</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>37</v>
       </c>
@@ -6499,9 +6437,7 @@
         <v>259</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>37</v>
       </c>
@@ -6557,9 +6493,7 @@
       <c r="K92" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L92" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>37</v>
       </c>
@@ -6613,9 +6547,7 @@
         <v>259</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>37</v>
       </c>
@@ -6640,44 +6572,42 @@
       <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6701,9 +6631,7 @@
         <v>258</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>38</v>
       </c>
@@ -6747,9 +6675,7 @@
         <v>279</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>38</v>
       </c>
@@ -6797,9 +6723,7 @@
         <v>259</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>38</v>
       </c>
@@ -6824,48 +6748,46 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6893,9 +6815,7 @@
         <v>259</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>39</v>
       </c>
@@ -6947,9 +6867,7 @@
         <v>280</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>39</v>
       </c>
@@ -7003,9 +6921,7 @@
         <v>280</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>39</v>
       </c>
@@ -7059,9 +6975,7 @@
         <v>280</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>39</v>
       </c>
@@ -7115,9 +7029,7 @@
         <v>280</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>39</v>
       </c>
@@ -7171,9 +7083,7 @@
         <v>280</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>39</v>
       </c>
@@ -7200,44 +7110,42 @@
       <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M105" s="5" t="s">
+      <c r="K105" s="2"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5" t="s">
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V105" s="5"/>
+      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7261,9 +7169,7 @@
         <v>258</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>40</v>
       </c>
@@ -7307,9 +7213,7 @@
         <v>281</v>
       </c>
       <c r="K107" s="5"/>
-      <c r="L107" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5" t="s">
         <v>40</v>
       </c>
@@ -7357,9 +7261,7 @@
         <v>259</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>40</v>
       </c>
@@ -7411,9 +7313,7 @@
         <v>259</v>
       </c>
       <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L109" s="4"/>
       <c r="M109" s="5" t="s">
         <v>40</v>
       </c>
@@ -7467,9 +7367,7 @@
         <v>259</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>40</v>
       </c>
@@ -7523,9 +7421,7 @@
         <v>259</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>40</v>
       </c>
@@ -7577,9 +7473,7 @@
         <v>259</v>
       </c>
       <c r="K112" s="5"/>
-      <c r="L112" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>40</v>
       </c>
@@ -7631,9 +7525,7 @@
         <v>259</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>40</v>
       </c>
@@ -7687,9 +7579,7 @@
         <v>259</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>40</v>
       </c>
@@ -7743,9 +7633,7 @@
       <c r="K115" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L115" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
@@ -7797,9 +7685,7 @@
         <v>276</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>40</v>
       </c>
@@ -7849,9 +7735,7 @@
         <v>259</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>40</v>
       </c>
@@ -7901,9 +7785,7 @@
         <v>259</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>40</v>
       </c>
@@ -7928,46 +7810,44 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="K119" s="5" t="s">
+      <c r="K119" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L119" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="V119" s="5" t="s">
+      <c r="V119" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7993,9 +7873,7 @@
         <v>258</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>37</v>
       </c>
@@ -8043,9 +7921,7 @@
         <v>259</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>37</v>
       </c>
@@ -8101,9 +7977,7 @@
       <c r="K122" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L122" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>37</v>
       </c>
@@ -8157,9 +8031,7 @@
         <v>259</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>37</v>
       </c>
@@ -8808,48 +8680,46 @@
       <c r="V139" s="9"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O140" s="5" t="s">
+      <c r="O140" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V140" s="5"/>
+      <c r="V140" s="2"/>
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="5" t="s">
@@ -8875,9 +8745,7 @@
         <v>287</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>42</v>
       </c>
@@ -8956,46 +8824,44 @@
       </c>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5" t="s">
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K143" s="5" t="s">
+      <c r="K143" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L143" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M143" s="5" t="s">
+      <c r="L143" s="4"/>
+      <c r="M143" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N143" s="5" t="s">
+      <c r="N143" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5" t="s">
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="V143" s="5" t="s">
+      <c r="V143" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9021,9 +8887,7 @@
         <v>258</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>43</v>
       </c>
@@ -9067,9 +8931,7 @@
         <v>290</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>43</v>
       </c>
@@ -9117,9 +8979,7 @@
         <v>259</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>43</v>
       </c>
@@ -9144,44 +9004,42 @@
       <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5" t="s">
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M147" s="5" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5" t="s">
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V147" s="5"/>
+      <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9205,9 +9063,7 @@
         <v>258</v>
       </c>
       <c r="K148" s="5"/>
-      <c r="L148" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>44</v>
       </c>
@@ -9255,9 +9111,7 @@
         <v>259</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>44</v>
       </c>
@@ -9311,9 +9165,7 @@
         <v>259</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>44</v>
       </c>
@@ -9367,9 +9219,7 @@
         <v>259</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>44</v>
       </c>
@@ -9396,44 +9246,42 @@
       <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5" t="s">
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M152" s="5" t="s">
+      <c r="K152" s="2"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5" t="s">
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V152" s="5"/>
+      <c r="V152" s="2"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9457,9 +9305,7 @@
         <v>258</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>45</v>
       </c>
@@ -9503,9 +9349,7 @@
         <v>291</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>45</v>
       </c>
@@ -9528,48 +9372,46 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O155" s="5" t="s">
+      <c r="O155" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -9599,9 +9441,7 @@
         <v>259</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>46</v>
       </c>
@@ -9653,9 +9493,7 @@
         <v>292</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>46</v>
       </c>
@@ -9707,9 +9545,7 @@
         <v>259</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>46</v>
       </c>
@@ -9736,44 +9572,42 @@
       <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5" t="s">
+      <c r="C159" s="2"/>
+      <c r="D159" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5" t="s">
+      <c r="N159" s="2"/>
+      <c r="O159" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -9799,9 +9633,7 @@
         <v>293</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>47</v>
       </c>
@@ -9824,44 +9656,42 @@
       <c r="V160" s="5"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5" t="s">
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M161" s="5" t="s">
+      <c r="K161" s="2"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N161" s="5" t="s">
+      <c r="N161" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-      <c r="U161" s="5" t="s">
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V161" s="5"/>
+      <c r="V161" s="2"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="5" t="s">
@@ -9885,9 +9715,7 @@
         <v>258</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>48</v>
       </c>
@@ -9935,9 +9763,7 @@
         <v>259</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>48</v>
       </c>
@@ -9991,9 +9817,7 @@
       <c r="K164" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L164" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>48</v>
       </c>
@@ -10020,46 +9844,44 @@
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5" t="s">
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K165" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L165" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M165" s="5" t="s">
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5" t="s">
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V165" s="5" t="s">
+      <c r="V165" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10085,9 +9907,7 @@
         <v>258</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>49</v>
       </c>
@@ -10135,9 +9955,7 @@
         <v>259</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>49</v>
       </c>
@@ -10191,9 +10009,7 @@
       <c r="K168" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L168" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>49</v>
       </c>
@@ -10220,46 +10036,44 @@
       </c>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K169" s="5" t="s">
+      <c r="K169" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L169" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M169" s="5" t="s">
+      <c r="L169" s="4"/>
+      <c r="M169" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V169" s="5" t="s">
+      <c r="V169" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10285,9 +10099,7 @@
         <v>258</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>50</v>
       </c>
@@ -10335,9 +10147,7 @@
         <v>259</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>50</v>
       </c>
@@ -10391,9 +10201,7 @@
       <c r="K172" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>50</v>
       </c>
@@ -10420,44 +10228,42 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -10481,9 +10287,7 @@
         <v>258</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>51</v>
       </c>
@@ -10531,9 +10335,7 @@
         <v>259</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>51</v>
       </c>
@@ -10587,9 +10389,7 @@
       <c r="K176" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L176" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>51</v>
       </c>
@@ -10616,44 +10416,42 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M177" s="5" t="s">
+      <c r="K177" s="2"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
@@ -10677,9 +10475,7 @@
         <v>258</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>52</v>
       </c>
@@ -10723,9 +10519,7 @@
         <v>296</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>52</v>
       </c>
@@ -10775,9 +10569,7 @@
         <v>259</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>52</v>
       </c>
@@ -10831,9 +10623,7 @@
       <c r="K181" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L181" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>52</v>
       </c>
@@ -10885,9 +10675,7 @@
         <v>298</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>52</v>
       </c>
@@ -10912,50 +10700,48 @@
       <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K183" s="5" t="s">
+      <c r="K183" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="L183" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M183" s="5" t="s">
+      <c r="L183" s="4"/>
+      <c r="M183" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O183" s="5" t="s">
+      <c r="O183" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V183" s="5" t="s">
+      <c r="V183" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -10987,9 +10773,7 @@
         <v>259</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>53</v>
       </c>
@@ -11043,9 +10827,7 @@
       <c r="K185" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>53</v>
       </c>
@@ -11072,50 +10854,48 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K186" s="5" t="s">
+      <c r="K186" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="L186" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M186" s="5" t="s">
+      <c r="L186" s="4"/>
+      <c r="M186" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="V186" s="5" t="s">
+      <c r="V186" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -11147,9 +10927,7 @@
         <v>259</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>54</v>
       </c>
@@ -11203,9 +10981,7 @@
       <c r="K188" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L188" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>54</v>
       </c>
@@ -11232,48 +11008,46 @@
       </c>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M189" s="5" t="s">
+      <c r="K189" s="2"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -11303,9 +11077,7 @@
         <v>259</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>55</v>
       </c>
@@ -11359,9 +11131,7 @@
       <c r="K191" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L191" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>55</v>
       </c>
@@ -11388,48 +11158,46 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5" t="s">
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M192" s="5" t="s">
+      <c r="K192" s="2"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O192" s="5" t="s">
+      <c r="O192" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5" t="s">
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="2"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V192" s="5"/>
+      <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -11459,9 +11227,7 @@
         <v>259</v>
       </c>
       <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="5" t="s">
         <v>56</v>
       </c>
@@ -11515,9 +11281,7 @@
       <c r="K194" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L194" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>56</v>
       </c>
@@ -11544,44 +11308,42 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="2"/>
+      <c r="D195" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M195" s="5" t="s">
+      <c r="K195" s="2"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5" t="s">
+      <c r="N195" s="2"/>
+      <c r="O195" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -11607,9 +11369,7 @@
         <v>259</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>57</v>
       </c>
@@ -11655,9 +11415,7 @@
         <v>259</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>320</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>57</v>
       </c>

--- a/data/output/FV2310_FV2304/INVOIC/31004.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31004.xlsx
@@ -1685,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1714,11 +1714,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2156,7 +2162,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2492,7 +2498,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2718,7 +2724,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2906,7 +2912,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3096,7 +3102,7 @@
         <v>301</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3284,7 +3290,7 @@
         <v>301</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3472,7 +3478,7 @@
         <v>302</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3660,7 +3666,7 @@
         <v>302</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3848,7 +3854,7 @@
         <v>303</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -4092,7 +4098,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2"/>
@@ -4934,7 +4940,7 @@
         <v>307</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N60" s="2"/>
@@ -5066,7 +5072,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5254,7 +5260,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5444,7 +5450,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5646,7 +5652,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6350,7 +6356,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6592,7 +6598,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6770,7 +6776,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7130,7 +7136,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7832,7 +7838,7 @@
         <v>311</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8062,22 +8068,22 @@
       <c r="B124" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10" t="s">
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="K124" s="10" t="s">
+      <c r="K124" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M124" s="5"/>
@@ -8095,25 +8101,25 @@
       <c r="A125" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10" t="s">
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="K125" s="10"/>
-      <c r="L125" s="11" t="s">
+      <c r="K125" s="11"/>
+      <c r="L125" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M125" s="5"/>
@@ -8131,27 +8137,27 @@
       <c r="A126" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10" t="s">
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="K126" s="10"/>
-      <c r="L126" s="11" t="s">
+      <c r="K126" s="11"/>
+      <c r="L126" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M126" s="5"/>
@@ -8169,29 +8175,29 @@
       <c r="A127" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="E127" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10" t="s">
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="J127" s="10" t="s">
+      <c r="J127" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K127" s="10"/>
-      <c r="L127" s="11" t="s">
+      <c r="K127" s="11"/>
+      <c r="L127" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M127" s="5"/>
@@ -8209,31 +8215,31 @@
       <c r="A128" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10" t="s">
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="J128" s="10" t="s">
+      <c r="J128" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="K128" s="10" t="s">
+      <c r="K128" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="L128" s="11" t="s">
+      <c r="L128" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M128" s="5"/>
@@ -8251,29 +8257,29 @@
       <c r="A129" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10" t="s">
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J129" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="K129" s="10"/>
-      <c r="L129" s="11" t="s">
+      <c r="K129" s="11"/>
+      <c r="L129" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M129" s="5"/>
@@ -8291,29 +8297,29 @@
       <c r="A130" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="E130" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10" t="s">
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="J130" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K130" s="10"/>
-      <c r="L130" s="11" t="s">
+      <c r="J130" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="K130" s="11"/>
+      <c r="L130" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M130" s="5"/>
@@ -8331,29 +8337,29 @@
       <c r="A131" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10" t="s">
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J131" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K131" s="10"/>
-      <c r="L131" s="11" t="s">
+      <c r="J131" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="K131" s="11"/>
+      <c r="L131" s="12" t="s">
         <v>322</v>
       </c>
       <c r="M131" s="5"/>
@@ -8384,7 +8390,7 @@
       <c r="L132" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="M132" s="9" t="s">
+      <c r="M132" s="13" t="s">
         <v>323</v>
       </c>
       <c r="N132" s="9" t="s">
@@ -8702,7 +8708,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -8846,7 +8852,7 @@
         <v>315</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9024,7 +9030,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9266,7 +9272,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9394,7 +9400,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -9592,7 +9598,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N159" s="2"/>
@@ -9676,7 +9682,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -9866,7 +9872,7 @@
         <v>317</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10058,7 +10064,7 @@
         <v>317</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10248,7 +10254,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -10436,7 +10442,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10724,7 +10730,7 @@
         <v>317</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -10878,7 +10884,7 @@
         <v>319</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11030,7 +11036,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -11180,7 +11186,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -11328,7 +11334,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N195" s="2"/>
